--- a/img30/offline-30mv-Layer1-Test4.xlsx
+++ b/img30/offline-30mv-Layer1-Test4.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/zianlab/img30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE43CCE-EEF2-354B-84D7-7B7990ACC570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1501E-7A56-4542-B5AC-E8579565C537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -185,7 +188,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>频率</c:v>
@@ -738,7 +741,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-19B7-E341-84CC-2FFEDF5953CB}"/>
+              <c16:uniqueId val="{00000006-0665-B143-A220-E95EC7B71F01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -751,11 +754,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1792593103"/>
-        <c:axId val="1839400447"/>
+        <c:axId val="1799773535"/>
+        <c:axId val="30363216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1792593103"/>
+        <c:axId val="1799773535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1839400447"/>
+        <c:crossAx val="30363216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -791,7 +794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1839400447"/>
+        <c:axId val="30363216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1792593103"/>
+        <c:crossAx val="1799773535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -830,14 +833,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -886,6 +883,884 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="G3">
+            <v>0.49863000000000002</v>
+          </cell>
+          <cell r="H3">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.50063000000000002</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>0.50263000000000002</v>
+          </cell>
+          <cell r="H5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.50463000000000002</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>0.50663000000000002</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>0.50863000000000003</v>
+          </cell>
+          <cell r="H8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>0.51063000000000003</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>0.51263000000000003</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="G11">
+            <v>0.51463000000000003</v>
+          </cell>
+          <cell r="H11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12">
+            <v>0.51663000000000003</v>
+          </cell>
+          <cell r="H12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13">
+            <v>0.51863000000000004</v>
+          </cell>
+          <cell r="H13">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="G14">
+            <v>0.52063000000000004</v>
+          </cell>
+          <cell r="H14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15">
+            <v>0.52263000000000004</v>
+          </cell>
+          <cell r="H15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16">
+            <v>0.52463000000000004</v>
+          </cell>
+          <cell r="H16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17">
+            <v>0.52663000000000004</v>
+          </cell>
+          <cell r="H17">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18">
+            <v>0.52863000000000004</v>
+          </cell>
+          <cell r="H18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19">
+            <v>0.53063000000000005</v>
+          </cell>
+          <cell r="H19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="G20">
+            <v>0.53263000000000005</v>
+          </cell>
+          <cell r="H20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="G21">
+            <v>0.53463000000000005</v>
+          </cell>
+          <cell r="H21">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="G22">
+            <v>0.53663000000000005</v>
+          </cell>
+          <cell r="H22">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="G23">
+            <v>0.53863000000000005</v>
+          </cell>
+          <cell r="H23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="G24">
+            <v>0.54063000000000005</v>
+          </cell>
+          <cell r="H24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="G25">
+            <v>0.54262999999999995</v>
+          </cell>
+          <cell r="H25">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="G26">
+            <v>0.54462999999999995</v>
+          </cell>
+          <cell r="H26">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="G27">
+            <v>0.54662999999999995</v>
+          </cell>
+          <cell r="H27">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="G28">
+            <v>0.54862999999999995</v>
+          </cell>
+          <cell r="H28">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="G29">
+            <v>0.55062999999999995</v>
+          </cell>
+          <cell r="H29">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="G30">
+            <v>0.55262999999999995</v>
+          </cell>
+          <cell r="H30">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="G31">
+            <v>0.55462999999999996</v>
+          </cell>
+          <cell r="H31">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="G32">
+            <v>0.55662999999999996</v>
+          </cell>
+          <cell r="H32">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="G33">
+            <v>0.55862999999999996</v>
+          </cell>
+          <cell r="H33">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="G34">
+            <v>0.56062999999999996</v>
+          </cell>
+          <cell r="H34">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="G35">
+            <v>0.56262999999999996</v>
+          </cell>
+          <cell r="H35">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="G36">
+            <v>0.56462999999999997</v>
+          </cell>
+          <cell r="H36">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="G37">
+            <v>0.56662999999999997</v>
+          </cell>
+          <cell r="H37">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="G38">
+            <v>0.56862999999999997</v>
+          </cell>
+          <cell r="H38">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="G39">
+            <v>0.57062999999999997</v>
+          </cell>
+          <cell r="H39">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="G40">
+            <v>0.57262999999999997</v>
+          </cell>
+          <cell r="H40">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="G41">
+            <v>0.57462999999999997</v>
+          </cell>
+          <cell r="H41">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="G42">
+            <v>0.57662999999999998</v>
+          </cell>
+          <cell r="H42">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="G43">
+            <v>0.57862999999999998</v>
+          </cell>
+          <cell r="H43">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="G44">
+            <v>0.58062999999999998</v>
+          </cell>
+          <cell r="H44">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="G45">
+            <v>0.58262999999999998</v>
+          </cell>
+          <cell r="H45">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46">
+            <v>0.58462999999999998</v>
+          </cell>
+          <cell r="H46">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47">
+            <v>0.58662999999999998</v>
+          </cell>
+          <cell r="H47">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48">
+            <v>0.58862999999999999</v>
+          </cell>
+          <cell r="H48">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>0.59062999999999999</v>
+          </cell>
+          <cell r="H49">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>0.59262999999999999</v>
+          </cell>
+          <cell r="H50">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="G51">
+            <v>0.59462999999999999</v>
+          </cell>
+          <cell r="H51">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52">
+            <v>0.59662999999999999</v>
+          </cell>
+          <cell r="H52">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53">
+            <v>0.59863</v>
+          </cell>
+          <cell r="H53">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="G54">
+            <v>0.60063</v>
+          </cell>
+          <cell r="H54">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="G55">
+            <v>0.60263</v>
+          </cell>
+          <cell r="H55">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="G56">
+            <v>0.60463</v>
+          </cell>
+          <cell r="H56">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="G57">
+            <v>0.60663</v>
+          </cell>
+          <cell r="H57">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="G58">
+            <v>0.60863</v>
+          </cell>
+          <cell r="H58">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="G59">
+            <v>0.61063000000000001</v>
+          </cell>
+          <cell r="H59">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="G60">
+            <v>0.61263000000000001</v>
+          </cell>
+          <cell r="H60">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="G61">
+            <v>0.61463000000000001</v>
+          </cell>
+          <cell r="H61">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="G62">
+            <v>0.61663000000000001</v>
+          </cell>
+          <cell r="H62">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="G63">
+            <v>0.61863000000000001</v>
+          </cell>
+          <cell r="H63">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="G64">
+            <v>0.62063000000000001</v>
+          </cell>
+          <cell r="H64">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="G65">
+            <v>0.62263000000000002</v>
+          </cell>
+          <cell r="H65">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="G66">
+            <v>0.62463000000000002</v>
+          </cell>
+          <cell r="H66">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="G67">
+            <v>0.62663000000000002</v>
+          </cell>
+          <cell r="H67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="G68">
+            <v>0.62863000000000002</v>
+          </cell>
+          <cell r="H68">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="G69">
+            <v>0.63063000000000002</v>
+          </cell>
+          <cell r="H69">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="G70">
+            <v>0.63263000000000003</v>
+          </cell>
+          <cell r="H70">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="G71">
+            <v>0.63463000000000003</v>
+          </cell>
+          <cell r="H71">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="G72">
+            <v>0.63663000000000003</v>
+          </cell>
+          <cell r="H72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="G73">
+            <v>0.63863000000000003</v>
+          </cell>
+          <cell r="H73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="G74">
+            <v>0.64063000000000003</v>
+          </cell>
+          <cell r="H74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="G75">
+            <v>0.64263000000000003</v>
+          </cell>
+          <cell r="H75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="G76">
+            <v>0.64463000000000004</v>
+          </cell>
+          <cell r="H76">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="G77">
+            <v>0.64663000000000004</v>
+          </cell>
+          <cell r="H77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="G78">
+            <v>0.64863000000000004</v>
+          </cell>
+          <cell r="H78">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="G79">
+            <v>0.65063000000000004</v>
+          </cell>
+          <cell r="H79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="G80">
+            <v>0.65263000000000004</v>
+          </cell>
+          <cell r="H80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="G81">
+            <v>0.65463000000000005</v>
+          </cell>
+          <cell r="H81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="G82">
+            <v>0.65663000000000005</v>
+          </cell>
+          <cell r="H82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="G83">
+            <v>0.65863000000000005</v>
+          </cell>
+          <cell r="H83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="G84">
+            <v>0.66063000000000005</v>
+          </cell>
+          <cell r="H84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="G85">
+            <v>0.66263000000000005</v>
+          </cell>
+          <cell r="H85">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="G86">
+            <v>0.66463000000000005</v>
+          </cell>
+          <cell r="H86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="G87">
+            <v>0.66662999999999994</v>
+          </cell>
+          <cell r="H87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="G88">
+            <v>0.66862999999999995</v>
+          </cell>
+          <cell r="H88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="G89">
+            <v>0.67062999999999995</v>
+          </cell>
+          <cell r="H89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="G90">
+            <v>0.67262999999999995</v>
+          </cell>
+          <cell r="H90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="G91">
+            <v>0.67462999999999995</v>
+          </cell>
+          <cell r="H91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="G92">
+            <v>0.67662999999999995</v>
+          </cell>
+          <cell r="H92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="G93">
+            <v>0.67862999999999996</v>
+          </cell>
+          <cell r="H93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="G94">
+            <v>0.68062999999999996</v>
+          </cell>
+          <cell r="H94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="G95">
+            <v>0.68262999999999996</v>
+          </cell>
+          <cell r="H95">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="G96">
+            <v>0.68462999999999996</v>
+          </cell>
+          <cell r="H96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="G97">
+            <v>0.68662999999999996</v>
+          </cell>
+          <cell r="H97">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="G98">
+            <v>0.68862999999999996</v>
+          </cell>
+          <cell r="H98">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="G99">
+            <v>0.69062999999999997</v>
+          </cell>
+          <cell r="H99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="G100">
+            <v>0.69262999999999997</v>
+          </cell>
+          <cell r="H100">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="G101">
+            <v>0.69462999999999997</v>
+          </cell>
+          <cell r="H101">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="G102">
+            <v>0.69662999999999997</v>
+          </cell>
+          <cell r="H102">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="G103">
+            <v>0.69862999999999997</v>
+          </cell>
+          <cell r="H103">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="G104">
+            <v>0.70062999999999998</v>
+          </cell>
+          <cell r="H104">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="G105">
+            <v>0.70262999999999998</v>
+          </cell>
+          <cell r="H105">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="G106">
+            <v>0.70462999999999998</v>
+          </cell>
+          <cell r="H106">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="G107">
+            <v>0.70662999999999998</v>
+          </cell>
+          <cell r="H107">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="G108">
+            <v>0.70862999999999998</v>
+          </cell>
+          <cell r="H108">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="G109">
+            <v>0.71062999999999998</v>
+          </cell>
+          <cell r="H109">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="G110" t="str">
+            <v>其他</v>
+          </cell>
+          <cell r="H110">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H90"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
